--- a/CmsTest/Data_Test_Case/Login_Test_Case.xlsx
+++ b/CmsTest/Data_Test_Case/Login_Test_Case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="15720" windowHeight="2625"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15450" windowHeight="2115"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
@@ -15,33 +15,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,40 +387,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+      <c r="A1">
+        <v>13000000001</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>13000000007</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>111111</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>13200000012</v>
+      </c>
+      <c r="B3">
+        <v>234567</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/CmsTest/Data_Test_Case/Login_Test_Case.xlsx
+++ b/CmsTest/Data_Test_Case/Login_Test_Case.xlsx
@@ -4,36 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="15450" windowHeight="2115"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="23895" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f</t>
+    <t>退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号错误</t>
+    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -409,35 +400,35 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>13000000007</v>
+        <v>13426370076</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>13200000012</v>
+        <v>1200000004</v>
       </c>
       <c r="B3">
-        <v>234567</v>
+        <v>123456</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/CmsTest/Data_Test_Case/Login_Test_Case.xlsx
+++ b/CmsTest/Data_Test_Case/Login_Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="23895" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="23895" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t</t>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退出</t>
+    <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
